--- a/doc/이강웅/digitalSensor_addressMap_16.xlsx
+++ b/doc/이강웅/digitalSensor_addressMap_16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\디지털센서\Digital_Sensor_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63493862-D956-49D8-8C33-D8B344815D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5C9A63-5A7C-4277-B983-CA49DAEF5401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="98" yWindow="15" windowWidth="21585" windowHeight="12765" xr2:uid="{7723C1F5-B2BF-43BC-BB02-9C8B7168AE49}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{7723C1F5-B2BF-43BC-BB02-9C8B7168AE49}"/>
   </bookViews>
   <sheets>
     <sheet name="digitalSensor_addressMap" sheetId="2" r:id="rId1"/>
@@ -244,10 +244,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>12(0x0c)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>22(0x16)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -268,7 +264,28 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>0 or 0x0e = No Sensor Calibration
+    <t>16 (0x10): Write Multiple Registers</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>32bit IEEE-754 Floating Point</t>
+  </si>
+  <si>
+    <t>data Length
+(1은 16bit )</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x03 : Read Holding Registers
+16 (0x10): Write Multiple Registers</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>19(0x13)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0  = No Sensor Calibration
 1 = Cal in progress
 2 = Cal OK
 3 = Fal Not Stable
@@ -278,24 +295,8 @@
 7= Value too low
 8= Fail Value too high
 9= Fali Slope too low
-10= Fali Slope too high</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>16 (0x10): Write Multiple Registers</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>32bit IEEE-754 Floating Point</t>
-  </si>
-  <si>
-    <t>0x03 : Read Holding Registers
-16 (0x10): Write Multiple Registers</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>data Length
-(1은 16bit )</t>
+10= Fali Slope too high
+0e  = Calibration fail</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1036,6 +1037,9 @@
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1053,9 +1057,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1414,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54A6C57-A9C5-4479-9F00-9F396A2B169A}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1449,8 +1450,8 @@
       <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
-        <v>64</v>
+      <c r="G1" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>5</v>
@@ -1481,7 +1482,7 @@
       <c r="G2" s="10">
         <v>2</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="22" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="12" t="s">
@@ -1510,7 +1511,7 @@
       <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="12" t="s">
         <v>38</v>
       </c>
@@ -1537,7 +1538,7 @@
       <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="12" t="s">
         <v>38</v>
       </c>
@@ -1594,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>20</v>
@@ -1608,7 +1609,7 @@
         <v>40050</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
@@ -1651,11 +1652,11 @@
       <c r="G8" s="8">
         <v>2</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.6">
@@ -1680,9 +1681,9 @@
       <c r="G9" s="8">
         <v>2</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.6">
@@ -1711,7 +1712,7 @@
         <v>13</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="52.15" customHeight="1" x14ac:dyDescent="0.6">
@@ -1722,7 +1723,7 @@
         <v>40013</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>37</v>
@@ -1740,7 +1741,7 @@
         <v>41</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="50.65" customHeight="1" x14ac:dyDescent="0.6">
@@ -1751,7 +1752,7 @@
         <v>40023</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>14</v>
@@ -1769,7 +1770,7 @@
         <v>25</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="55.15" customHeight="1" x14ac:dyDescent="0.6">
@@ -1780,7 +1781,7 @@
         <v>40024</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>22</v>
@@ -1798,7 +1799,7 @@
         <v>24</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K13" s="15"/>
     </row>
@@ -1810,7 +1811,7 @@
         <v>40026</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>42</v>
@@ -1838,13 +1839,13 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
     </row>
     <row r="17" spans="1:11" ht="19.149999999999999" x14ac:dyDescent="0.6">
       <c r="A17" s="7" t="s">
@@ -1908,13 +1909,13 @@
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
     </row>
     <row r="22" spans="1:11" ht="19.149999999999999" x14ac:dyDescent="0.6">
       <c r="A22" s="7" t="s">
